--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/junshepard/library/containers/com.microsoft.excel/data/state-eps-data-repository/wi/trans/syvbt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9501D0-EE20-8E4F-A46A-58B2C3A0B8F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67922E4F-4AE6-454C-BD1E-D77E265D682A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="19700" windowHeight="11580" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/junshepard/library/containers/com.microsoft.excel/data/state-eps-data-repository/wi/trans/syvbt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wi/trans/syvbt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67922E4F-4AE6-454C-BD1E-D77E265D682A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE76A943-2583-E841-B77F-CAD93111F7CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="19700" windowHeight="11580" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wi/trans/syvbt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/junshepard/library/containers/com.microsoft.excel/data/state-eps-data-repository/wi/trans/syvbt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE76A943-2583-E841-B77F-CAD93111F7CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D3877B-94A7-7D40-8218-DF2578276535}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="19700" windowHeight="11580" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
